--- a/checkoutUser.xlsx
+++ b/checkoutUser.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815"/>
+    <workbookView windowWidth="19890" windowHeight="7560"/>
   </bookViews>
   <sheets>
     <sheet name="Customers" sheetId="1" r:id="rId1"/>
@@ -29,11 +29,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="h:mm\ AM/PM"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -44,6 +45,120 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -52,53 +167,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -111,82 +188,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -197,187 +198,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,6 +403,56 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -433,56 +484,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -491,10 +492,10 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -509,134 +510,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -646,6 +647,18 @@
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -656,12 +669,12 @@
     <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
     <cellStyle name="Currency" xfId="5" builtinId="4"/>
     <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
     <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
     <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
@@ -1030,10 +1043,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
@@ -1069,7 +1082,7 @@
         <v>40</v>
       </c>
       <c r="B3" s="2">
-        <v>0.555555555555556</v>
+        <v>0.472222222222222</v>
       </c>
       <c r="C3" s="3">
         <v>44709</v>
@@ -1077,10 +1090,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" s="2">
-        <v>0.514583333333333</v>
+        <v>0.513888888888889</v>
       </c>
       <c r="C4" s="3">
         <v>44709</v>
@@ -1091,7 +1104,7 @@
         <v>41</v>
       </c>
       <c r="B5" s="2">
-        <v>0.638888888888889</v>
+        <v>0.514583333333333</v>
       </c>
       <c r="C5" s="3">
         <v>44709</v>
@@ -1099,10 +1112,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" s="2">
-        <v>0.597222222222222</v>
+        <v>0.555555555555556</v>
       </c>
       <c r="C6" s="3">
         <v>44709</v>
@@ -1110,10 +1123,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" s="2">
-        <v>0.680555555555556</v>
+        <v>0.597222222222222</v>
       </c>
       <c r="C7" s="3">
         <v>44709</v>
@@ -1121,10 +1134,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" s="2">
-        <v>0.493055555555556</v>
+        <v>0.638888888888889</v>
       </c>
       <c r="C8" s="3">
         <v>44709</v>
@@ -1132,10 +1145,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9" s="2">
-        <v>0.618055555555556</v>
+        <v>0.680555555555556</v>
       </c>
       <c r="C9" s="3">
         <v>44709</v>
@@ -1143,10 +1156,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" s="2">
-        <v>0.640277777777778</v>
+        <v>0.493055555555556</v>
       </c>
       <c r="C10" s="3">
         <v>44709</v>
@@ -1157,66 +1170,143 @@
         <v>44</v>
       </c>
       <c r="B11" s="2">
-        <v>0.806944444444444</v>
+        <v>0.640277777777778</v>
       </c>
       <c r="C11" s="3">
         <v>44709</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="A12" s="1">
+        <v>40</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.681944444444444</v>
+      </c>
+      <c r="C12" s="4">
+        <v>44710</v>
+      </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="A13" s="1">
+        <v>40</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.723611111111111</v>
+      </c>
+      <c r="C13" s="4">
+        <v>44710</v>
+      </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="A14" s="5">
+        <v>41</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.515277777777778</v>
+      </c>
+      <c r="C14" s="4">
+        <v>44710</v>
+      </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+      <c r="A15" s="5">
+        <v>41</v>
+      </c>
+      <c r="B15" s="6">
+        <v>0.548611111111111</v>
+      </c>
+      <c r="C15" s="4">
+        <v>44710</v>
+      </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+      <c r="A16" s="5">
+        <v>42</v>
+      </c>
+      <c r="B16" s="6">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="C16" s="4">
+        <v>44710</v>
+      </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+      <c r="A17" s="5">
+        <v>42</v>
+      </c>
+      <c r="B17" s="6">
+        <v>0.631944444444444</v>
+      </c>
+      <c r="C17" s="4">
+        <v>44710</v>
+      </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
+      <c r="A18" s="5">
+        <v>42</v>
+      </c>
+      <c r="B18" s="6">
+        <v>0.721527777777778</v>
+      </c>
+      <c r="C18" s="4">
+        <v>44710</v>
+      </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+      <c r="A19" s="5">
+        <v>43</v>
+      </c>
+      <c r="B19" s="6">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="C19" s="4">
+        <v>44710</v>
+      </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
+      <c r="A20" s="5">
+        <v>43</v>
+      </c>
+      <c r="B20" s="6">
+        <v>0.590277777777778</v>
+      </c>
+      <c r="C20" s="4">
+        <v>44710</v>
+      </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
+      <c r="A21" s="5">
+        <v>44</v>
+      </c>
+      <c r="B21" s="6">
+        <v>0.381944444444444</v>
+      </c>
+      <c r="C21" s="4">
+        <v>44710</v>
+      </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
+      <c r="A22" s="5">
+        <v>44</v>
+      </c>
+      <c r="B22" s="6">
+        <v>0.470138888888889</v>
+      </c>
+      <c r="C22" s="4">
+        <v>44710</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="5">
+        <v>44</v>
+      </c>
+      <c r="B23" s="7">
+        <v>0.798611111111111</v>
+      </c>
+      <c r="C23" s="4">
+        <v>44710</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
